--- a/biology/Médecine/Pierre_Scherrer/Pierre_Scherrer.xlsx
+++ b/biology/Médecine/Pierre_Scherrer/Pierre_Scherrer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Scherrer, né le 22 juillet 1909 à Ambérieu-en-Bugey et mort le 13 janvier 1993 à Paris[1], est un psychiatre et écrivain français. Il est l'auteur d'Un hôpital sous l'Occupation et de Royal Morvan.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Scherrer, né le 22 juillet 1909 à Ambérieu-en-Bugey et mort le 13 janvier 1993 à Paris, est un psychiatre et écrivain français. Il est l'auteur d'Un hôpital sous l'Occupation et de Royal Morvan.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il soutient sa thèse de médecine en 1935 à l'université de Strasbourg et effectue son internat de psychiatrie dans les hôpitaux psychiatriques de la Seine. Il devient chef de service à l'hôpital psychiatrique de Bailleul en 1937[2]. Mobilisé en 1939, il est fait prisonnier par les Allemands puis libéré en 1941.
-Pendant l'Occupation de la France par l'Allemagne, en 1942, il est nommé médecin-directeur de l'hôpital psychiatrique d'Auxerre[3]. Il découvre le drame qu'a vécu l'hôpital psychiatrique pendant l'exode de 1940 en France. Il doit gérer l'établissement pendant cette période difficile en faisant face à la pénurie pour les malades et le personnel malgré les réquisitions de l'armée allemande[4]. C'est le sujet d'un ouvrage qu'il publie en 1989 : Un hôpital sous l'Occupation.
-En octobre 1944, il s'engage dans le 1er régiment du Morvan, le Royal-Morvan. Le 24, il est blessé lors d'un combat à Château-Lambert[5]. En 1950, Il publie Royal Morvan qui obtient le Prix Général Muteau décerné par l'Académie française.
-Il prend sa retraite en 1975 et publie plusieurs autres ouvrages historiques ainsi que des articles[6] et un traité de psychiatrie en quatre tomes[7]. Il meurt le 13 janvier 1993.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il soutient sa thèse de médecine en 1935 à l'université de Strasbourg et effectue son internat de psychiatrie dans les hôpitaux psychiatriques de la Seine. Il devient chef de service à l'hôpital psychiatrique de Bailleul en 1937. Mobilisé en 1939, il est fait prisonnier par les Allemands puis libéré en 1941.
+Pendant l'Occupation de la France par l'Allemagne, en 1942, il est nommé médecin-directeur de l'hôpital psychiatrique d'Auxerre. Il découvre le drame qu'a vécu l'hôpital psychiatrique pendant l'exode de 1940 en France. Il doit gérer l'établissement pendant cette période difficile en faisant face à la pénurie pour les malades et le personnel malgré les réquisitions de l'armée allemande. C'est le sujet d'un ouvrage qu'il publie en 1989 : Un hôpital sous l'Occupation.
+En octobre 1944, il s'engage dans le 1er régiment du Morvan, le Royal-Morvan. Le 24, il est blessé lors d'un combat à Château-Lambert. En 1950, Il publie Royal Morvan qui obtient le Prix Général Muteau décerné par l'Académie française.
+Il prend sa retraite en 1975 et publie plusieurs autres ouvrages historiques ainsi que des articles et un traité de psychiatrie en quatre tomes. Il meurt le 13 janvier 1993.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le père du couturier Jean-Louis Scherrer[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père du couturier Jean-Louis Scherrer.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Général-Muteau pour Royal Morvan en 1951[9]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Général-Muteau pour Royal Morvan en 1951</t>
         </is>
       </c>
     </row>
@@ -606,7 +624,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Royal Morvan, Durassié et Cie (1950)
 Approche clinique de la psychiatrie, 4 tomes, SIMEP (1977)
